--- a/data_excel/495.xlsx
+++ b/data_excel/495.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Lab Test\神經網路\makedata\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>小智</t>
   </si>
@@ -115,6 +115,14 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +505,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" activeCellId="1" sqref="C7 C12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -576,7 +584,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -628,7 +636,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -680,7 +688,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>

--- a/data_excel/495.xlsx
+++ b/data_excel/495.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Lab Test\神經網路\makedata\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>小智</t>
   </si>
@@ -115,14 +115,6 @@
   </si>
   <si>
     <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +497,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C12" activeCellId="1" sqref="C7 C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -584,7 +576,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -636,7 +628,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -688,7 +680,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
